--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3239681.585952029</v>
+        <v>3235375.869575958</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>46.69972942218443</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>13.16208281464279</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>55.90301252244888</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>181.6002370370886</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>403.906629291897</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.1653818931068</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>184.2720459863179</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>142.8631704396418</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.19588926457588</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>103.7969424489235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>104.1233804225864</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>34.44047701880672</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.9322023713001</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>33.82351723687695</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>115.4863975071902</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>39.56681219551418</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>130.1208074460232</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>202.3807982253692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3511,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>112.5284434523311</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2649.97764715743</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2649.97764715743</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2649.97764715743</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2649.97764715743</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2318.914759813859</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1966.146104543745</v>
       </c>
       <c r="X2" t="n">
-        <v>2198.886095354873</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.746763379062</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2248.366960976675</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>2079.430778048768</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>2079.430778048768</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>2079.430778048768</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2469.159540120205</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2248.366960976675</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1452.115530175776</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>980.6066514154681</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>622.3409528087177</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>622.3409528087177</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>615.3954520595142</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.715370239897</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.715370239897</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>450.1841540113768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>450.1841540113768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>450.1841540113768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>450.1841540113768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.1841540113768</v>
+        <v>541.9956044222747</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1387.497891571678</v>
+        <v>706.8975806003523</v>
       </c>
       <c r="C8" t="n">
-        <v>1387.497891571678</v>
+        <v>337.9350636599406</v>
       </c>
       <c r="D8" t="n">
-        <v>1387.497891571678</v>
+        <v>337.9350636599406</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>337.9350636599406</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>330.9895629107371</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>317.9421851875686</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4804,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4481930755664</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>605.9153060956119</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1830.581063083657</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2024.91527597564</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2195.084301292599</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4840,16 +4840,16 @@
         <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.93405351505</v>
+        <v>2209.87116617148</v>
       </c>
       <c r="W8" t="n">
-        <v>2188.165398244936</v>
+        <v>1857.102510901366</v>
       </c>
       <c r="X8" t="n">
-        <v>1814.699639983856</v>
+        <v>1483.636752640286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1774.0977316358</v>
+        <v>1093.497420664474</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2483.438099596678</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>475.3083168204283</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>475.3083168204283</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>475.3083168204283</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>327.3952232380352</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>764.7254868573889</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>475.3083168204283</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>475.3083168204283</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>475.3083168204283</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.843151638089</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101821</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978464</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>422.7903292978464</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>422.7903292978464</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3312.538429711218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3940.136393265825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>984.9192356072716</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>815.9830526793647</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>665.866413267029</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5837,16 +5837,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.167399417937</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1888.077129657224</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,19 +6010,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>923.4916164683283</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>754.5554335404214</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2406.996606615095</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2187.395141638036</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6217,43 +6217,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,19 +6542,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>113.9333885650331</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1992.637496775073</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1703.562270119271</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1448.877781913384</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1159.460611876424</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>931.4710609784063</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>931.4710609784063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7025,16 +7025,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7159,10 +7159,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,19 +7250,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1344.266747951538</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.297989183966</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2333.297989183966</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.222762528164</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.538274322277</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,19 +7730,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>128.5565265270895</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>147.63081181939</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>21.63976862165688</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>61.40075786968248</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>191.2691783702304</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.65245098079467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>112.6104454096922</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>33.12907551102215</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>141.4594738061304</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>37.12601365260466</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>61.35027805667497</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>15.02465210191909</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.49784254931346</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>711132.8264488542</v>
+        <v>711132.8264488541</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>711132.8264488541</v>
+        <v>711132.8264488542</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.274728755</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287559</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="K2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="M2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.274728755</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.274728755</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.274728755</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682745</v>
@@ -26438,10 +26438,10 @@
         <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.5365666827</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
@@ -26453,7 +26453,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-164337.8241097392</v>
+        <v>-164337.8241097394</v>
       </c>
       <c r="C6" t="n">
-        <v>425630.0551048052</v>
+        <v>425630.0551048055</v>
       </c>
       <c r="D6" t="n">
-        <v>269826.2490110098</v>
+        <v>269826.24901101</v>
       </c>
       <c r="E6" t="n">
-        <v>-171599.483042641</v>
+        <v>-171946.8622969982</v>
       </c>
       <c r="F6" t="n">
-        <v>599453.2083381655</v>
+        <v>599105.8290838083</v>
       </c>
       <c r="G6" t="n">
-        <v>599453.2083381658</v>
+        <v>599105.8290838085</v>
       </c>
       <c r="H6" t="n">
-        <v>599453.2083381658</v>
+        <v>599105.8290838088</v>
       </c>
       <c r="I6" t="n">
-        <v>599453.2083381655</v>
+        <v>599105.8290838089</v>
       </c>
       <c r="J6" t="n">
-        <v>423029.9891455727</v>
+        <v>422682.609891216</v>
       </c>
       <c r="K6" t="n">
-        <v>599453.2083381655</v>
+        <v>599105.8290838086</v>
       </c>
       <c r="L6" t="n">
-        <v>599453.2083381655</v>
+        <v>599105.8290838088</v>
       </c>
       <c r="M6" t="n">
-        <v>475244.697630107</v>
+        <v>474897.3183757497</v>
       </c>
       <c r="N6" t="n">
-        <v>599453.2083381657</v>
+        <v>599105.8290838082</v>
       </c>
       <c r="O6" t="n">
-        <v>599453.2083381654</v>
+        <v>599105.8290838082</v>
       </c>
       <c r="P6" t="n">
-        <v>599453.2083381657</v>
+        <v>599105.8290838089</v>
       </c>
     </row>
   </sheetData>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,13 +26983,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7.778673152627285</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>356.5690178638262</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>89.51803550048237</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>183.672654733919</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>9.877540728897941</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>11.11649234887091</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>34.3126073657769</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>172.1777136355738</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.0420493914777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>41.6241055740077</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28067,19 +28067,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209194</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>665.2579603615014</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32557,19 +32557,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>533.0479862785273</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32809,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O27" t="n">
-        <v>198.5607970756955</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>639.8517673857162</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34207,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>439.2440297647763</v>
       </c>
       <c r="M42" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L45" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>150.0052638941434</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>259.4836656067906</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>131.427271174484</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>406.830144396991</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>522.661715917057</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>399.073578864197</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36439,16 +36439,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36457,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O27" t="n">
-        <v>55.96455263125101</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>508.510055302383</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="M42" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38098,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L45" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3235375.869575958</v>
+        <v>3237136.399878743</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>10.29095677511125</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>46.69972942218443</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>91.29474423337678</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>403.906629291897</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>111.8045191520771</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.2720459863179</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>142.8631704396418</v>
+        <v>153.4530205899669</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>111.5266024655407</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>280.2121353250053</v>
       </c>
       <c r="X13" t="n">
-        <v>34.44047701880672</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>39.56681219551418</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960837</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>216.4795114578124</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>183.4720137757388</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>95.12712756824166</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781316</v>
+        <v>829.2607436694175</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>470.995045062667</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>85.20679246442273</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>78.26129171521926</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>64.33788765381016</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2649.97764715743</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2649.97764715743</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2649.97764715743</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2649.97764715743</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2318.914759813859</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1966.146104543745</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1592.680346282665</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.680346282665</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
         <v>667.8624625746712</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.56916835588</v>
+        <v>1702.337823625995</v>
       </c>
       <c r="C5" t="n">
-        <v>980.6066514154681</v>
+        <v>1333.375306685583</v>
       </c>
       <c r="D5" t="n">
-        <v>622.3409528087177</v>
+        <v>975.1096080788325</v>
       </c>
       <c r="E5" t="n">
-        <v>622.3409528087177</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>615.3954520595142</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4606,13 +4606,13 @@
         <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424005</v>
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.9956044222747</v>
+        <v>507.3364050629044</v>
       </c>
       <c r="C7" t="n">
-        <v>373.0594214943678</v>
+        <v>507.3364050629044</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>507.3364050629044</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>359.4233114805113</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>212.5333639826009</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y7" t="n">
-        <v>541.9956044222747</v>
+        <v>507.3364050629044</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>706.8975806003523</v>
+        <v>706.8975806003527</v>
       </c>
       <c r="C8" t="n">
-        <v>337.9350636599406</v>
+        <v>706.8975806003527</v>
       </c>
       <c r="D8" t="n">
-        <v>337.9350636599406</v>
+        <v>348.6318819936022</v>
       </c>
       <c r="E8" t="n">
-        <v>337.9350636599406</v>
+        <v>348.6318819936022</v>
       </c>
       <c r="F8" t="n">
-        <v>330.9895629107371</v>
+        <v>341.6863812443988</v>
       </c>
       <c r="G8" t="n">
-        <v>317.9421851875686</v>
+        <v>328.6390035212303</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
@@ -4810,34 +4810,34 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1830.581063083657</v>
+        <v>1281.162666244968</v>
       </c>
       <c r="N8" t="n">
-        <v>2024.91527597564</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2195.084301292599</v>
+        <v>2022.658083904028</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2540.934053515051</v>
       </c>
       <c r="V8" t="n">
         <v>2209.87116617148</v>
@@ -4871,37 +4871,37 @@
         <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>338.2052143260215</v>
       </c>
       <c r="G9" t="n">
         <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004798</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1934.002090843955</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2483.438099596678</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>651.4366193059393</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>332.3837969656967</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>184.4707033833035</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -5007,7 +5007,7 @@
         <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>833.085084136179</v>
       </c>
     </row>
     <row r="11">
@@ -5032,13 +5032,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5050,10 +5050,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5238,13 +5238,13 @@
         <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5606,10 +5606,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5664,7 +5664,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5834,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5889,16 +5889,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,40 +5910,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
         <v>1491.508541327549</v>
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>251.562654109227</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2406.996606615095</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2187.395141638036</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1898.319914982233</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1643.635426776346</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1354.218256739386</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6223,31 +6223,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6256,16 +6256,16 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6317,13 +6317,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6375,7 +6375,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6557,7 +6557,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6691,34 +6691,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
         <v>2129.438138565707</v>
@@ -6837,16 +6837,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,40 +6858,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
         <v>1491.508541327549</v>
@@ -6916,31 +6916,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,28 +6949,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
         <v>2129.438138565707</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,67 +7156,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,19 +7493,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
         <v>2319.799627685893</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
         <v>484.8112968429803</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1978.396372297858</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8458,19 +8458,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284453</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>147.63081181939</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478237</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>21.63976862165688</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>6.310863011585695</v>
       </c>
       <c r="X13" t="n">
-        <v>191.2691783702304</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>141.4594738061304</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>57.22910392194174</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0.925938869475857</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>35.11263957635597</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>72.11969353038617</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>711132.8264488541</v>
+        <v>711132.8264488542</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>711132.8264488542</v>
+        <v>711132.8264488541</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>711132.8264488541</v>
+        <v>711132.8264488542</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.274728755</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287559</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481115</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630332</v>
       </c>
       <c r="D4" t="n">
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682721</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682718</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682704</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682718</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.5365666827</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682696</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682766</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26524,46 +26524,46 @@
         <v>-164337.8241097394</v>
       </c>
       <c r="C6" t="n">
-        <v>425630.0551048055</v>
+        <v>425630.055104805</v>
       </c>
       <c r="D6" t="n">
         <v>269826.24901101</v>
       </c>
       <c r="E6" t="n">
-        <v>-171946.8622969982</v>
+        <v>-171634.2209680766</v>
       </c>
       <c r="F6" t="n">
-        <v>599105.8290838083</v>
+        <v>599418.4704127299</v>
       </c>
       <c r="G6" t="n">
-        <v>599105.8290838085</v>
+        <v>599418.4704127301</v>
       </c>
       <c r="H6" t="n">
-        <v>599105.8290838088</v>
+        <v>599418.4704127299</v>
       </c>
       <c r="I6" t="n">
-        <v>599105.8290838089</v>
+        <v>599418.4704127297</v>
       </c>
       <c r="J6" t="n">
-        <v>422682.609891216</v>
+        <v>422995.2512201371</v>
       </c>
       <c r="K6" t="n">
-        <v>599105.8290838086</v>
+        <v>599418.4704127295</v>
       </c>
       <c r="L6" t="n">
-        <v>599105.8290838088</v>
+        <v>599418.4704127302</v>
       </c>
       <c r="M6" t="n">
-        <v>474897.3183757497</v>
+        <v>475209.9597046714</v>
       </c>
       <c r="N6" t="n">
-        <v>599105.8290838082</v>
+        <v>599418.4704127298</v>
       </c>
       <c r="O6" t="n">
-        <v>599105.8290838082</v>
+        <v>599418.4704127298</v>
       </c>
       <c r="P6" t="n">
-        <v>599105.8290838089</v>
+        <v>599418.4704127301</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209783</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>313.6318159892459</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>7.778673152627285</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>290.635625838885</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>9.877540728897941</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>55.50528310697378</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.3126073657769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>172.1777136355738</v>
+        <v>161.5878634852487</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>33.89444555739054</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,19 +31837,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>438.5310889592611</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,7 +31858,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>357.9244589488883</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -33046,7 +33046,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33976,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543356</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>403.8524967138027</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34450,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,19 +35178,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297112</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>259.4836656067906</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>131.427271174484</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>300.6896499849021</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,7 +35506,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36685,7 +36685,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>226.582746865555</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>257.9506595121318</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37624,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997665</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>272.5107846304694</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>300.6896499849021</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
